--- a/VendasFibra2024.xlsx
+++ b/VendasFibra2024.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meus Arquivos\Minhas Vendas\Oi Fibra\Programas Venndas\VendasFibra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F0328-4782-4E88-BAB7-DE5937C5FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF94D43-3ED6-4154-8D77-B523BBCDC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{742CA038-B0DB-4BA3-ACDE-84327AB07010}"/>
+    <workbookView xWindow="5115" yWindow="15" windowWidth="15375" windowHeight="7785" xr2:uid="{742CA038-B0DB-4BA3-ACDE-84327AB07010}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="854">
   <si>
     <t>CPF</t>
   </si>
@@ -2449,10 +2449,6 @@
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>Sem Ligação - teve que alterar o endereço para dar viabilidade
-* Alterado em 11/06/2024 16:02 *</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 * Alterado em 11/06/2024 18:13 *</t>
   </si>
@@ -2500,10 +2496,6 @@
     <t>Sem Ligação / não conseguiu ligar - fica caindo na caixa de mensagem
 * Alterado em 12/06/2024 18:24 *
 * Alterado em 13/06/2024 13:26 *</t>
-  </si>
-  <si>
-    <t>Sem Ligação
-* Alterado em 13/06/2024 13:27 *</t>
   </si>
   <si>
     <t>Sem Ligação
@@ -2571,13 +2563,6 @@
     <t>19/06/2024 14:58</t>
   </si>
   <si>
-    <t>20/06/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem Ligação
-Parcial </t>
-  </si>
-  <si>
     <t>Sem Ligação*
 * Alterado em 19/06/2024 16:02 *</t>
   </si>
@@ -2590,12 +2575,6 @@
     <t>21/06/2024</t>
   </si>
   <si>
-    <t>Sem Ligação
-Parcial 
-refez a venda 
-* Alterado em 20/06/2024 12:21 *</t>
-  </si>
-  <si>
     <t>88614921187</t>
   </si>
   <si>
@@ -2606,13 +2585,6 @@
   </si>
   <si>
     <t>20/06/2024 12:59</t>
-  </si>
-  <si>
-    <t>Sem Ligação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-* Alterado em 20/06/2024 13:16 *</t>
   </si>
   <si>
     <t>22/06/2024</t>
@@ -2680,7 +2652,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3110,7 +3081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FB7FFF-F91F-42C2-B8DB-59A867BA1007}">
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M1048575"/>
@@ -3118,16 +3089,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="31.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="10.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11770,7 +11741,7 @@
         <v>13</v>
       </c>
       <c r="J213" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K213" t="s">
         <v>79</v>
@@ -11811,7 +11782,7 @@
         <v>13</v>
       </c>
       <c r="J214" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K214" t="s">
         <v>79</v>
@@ -11852,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="J215" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K215" t="s">
         <v>79</v>
@@ -11893,7 +11864,7 @@
         <v>13</v>
       </c>
       <c r="J216" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K216" t="s">
         <v>79</v>
@@ -11918,8 +11889,8 @@
       <c r="D217" t="s">
         <v>20</v>
       </c>
-      <c r="E217" t="n">
-        <v>35.0</v>
+      <c r="E217">
+        <v>35</v>
       </c>
       <c r="F217" t="s">
         <v>793</v>
@@ -11934,7 +11905,7 @@
         <v>40</v>
       </c>
       <c r="J217" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="K217" t="s">
         <v>79</v>
@@ -11942,19 +11913,19 @@
       <c r="L217" t="s">
         <v>700</v>
       </c>
-      <c r="M217" s="2" t="n">
-        <v>2.0</v>
+      <c r="M217" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>796</v>
+      </c>
+      <c r="B218" t="s">
         <v>797</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>798</v>
-      </c>
-      <c r="C218" t="s">
-        <v>799</v>
       </c>
       <c r="D218" t="s">
         <v>20</v>
@@ -11963,7 +11934,7 @@
         <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G218" t="s">
         <v>794</v>
@@ -11975,7 +11946,7 @@
         <v>13</v>
       </c>
       <c r="J218" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K218" t="s">
         <v>79</v>
@@ -11989,22 +11960,22 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>800</v>
+      </c>
+      <c r="B219" t="s">
         <v>801</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>802</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
+      </c>
+      <c r="F219" t="s">
         <v>803</v>
-      </c>
-      <c r="D219" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="F219" t="s">
-        <v>804</v>
       </c>
       <c r="G219" t="s">
         <v>789</v>
@@ -12016,7 +11987,7 @@
         <v>13</v>
       </c>
       <c r="J219" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K219" t="s">
         <v>79</v>
@@ -12024,19 +11995,19 @@
       <c r="L219" t="s">
         <v>700</v>
       </c>
-      <c r="M219" s="2" t="n">
-        <v>2.0</v>
+      <c r="M219" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>805</v>
+      </c>
+      <c r="B220" t="s">
         <v>806</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>807</v>
-      </c>
-      <c r="C220" t="s">
-        <v>808</v>
       </c>
       <c r="D220" t="s">
         <v>20</v>
@@ -12045,7 +12016,7 @@
         <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G220" t="s">
         <v>794</v>
@@ -12057,7 +12028,7 @@
         <v>13</v>
       </c>
       <c r="J220" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K220" t="s">
         <v>79</v>
@@ -12071,13 +12042,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>811</v>
+      </c>
+      <c r="B221" t="s">
+        <v>812</v>
+      </c>
+      <c r="C221" t="s">
         <v>813</v>
-      </c>
-      <c r="B221" t="s">
-        <v>814</v>
-      </c>
-      <c r="C221" t="s">
-        <v>815</v>
       </c>
       <c r="D221" t="s">
         <v>20</v>
@@ -12086,10 +12057,10 @@
         <v>35</v>
       </c>
       <c r="F221" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G221" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H221" t="s">
         <v>31</v>
@@ -12098,7 +12069,7 @@
         <v>13</v>
       </c>
       <c r="J221" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K221" t="s">
         <v>79</v>
@@ -12112,13 +12083,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>819</v>
+      </c>
+      <c r="B222" t="s">
+        <v>820</v>
+      </c>
+      <c r="C222" t="s">
         <v>821</v>
-      </c>
-      <c r="B222" t="s">
-        <v>822</v>
-      </c>
-      <c r="C222" t="s">
-        <v>823</v>
       </c>
       <c r="D222" t="s">
         <v>20</v>
@@ -12127,10 +12098,10 @@
         <v>35</v>
       </c>
       <c r="F222" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G222" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H222" t="s">
         <v>73</v>
@@ -12139,7 +12110,7 @@
         <v>13</v>
       </c>
       <c r="J222" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K222" t="s">
         <v>79</v>
@@ -12151,27 +12122,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>825</v>
+      </c>
+      <c r="B223" t="s">
+        <v>826</v>
+      </c>
+      <c r="C223" t="s">
         <v>827</v>
       </c>
-      <c r="B223" t="s">
+      <c r="D223" t="s">
+        <v>20</v>
+      </c>
+      <c r="E223">
+        <v>35</v>
+      </c>
+      <c r="F223" t="s">
         <v>828</v>
       </c>
-      <c r="C223" t="s">
-        <v>829</v>
-      </c>
-      <c r="D223" t="s">
-        <v>20</v>
-      </c>
-      <c r="E223" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="F223" t="s">
-        <v>830</v>
-      </c>
       <c r="G223" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H223" t="s">
         <v>31</v>
@@ -12180,7 +12151,7 @@
         <v>659</v>
       </c>
       <c r="J223" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="K223" t="s">
         <v>79</v>
@@ -12188,31 +12159,31 @@
       <c r="L223" t="s">
         <v>702</v>
       </c>
-      <c r="M223" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="M223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B224" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C224" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D224" t="s">
         <v>20</v>
       </c>
-      <c r="E224" t="n">
-        <v>35.0</v>
+      <c r="E224">
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G224" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H224" t="s">
         <v>73</v>
@@ -12221,7 +12192,7 @@
         <v>40</v>
       </c>
       <c r="J224" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="K224" t="s">
         <v>79</v>
@@ -12229,31 +12200,31 @@
       <c r="L224" t="s">
         <v>700</v>
       </c>
-      <c r="M224" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="225">
+      <c r="M224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B225" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C225" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D225" t="s">
         <v>20</v>
       </c>
-      <c r="E225" t="n">
-        <v>35.0</v>
+      <c r="E225">
+        <v>35</v>
       </c>
       <c r="F225" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="G225" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H225" t="s">
         <v>31</v>
@@ -12262,7 +12233,7 @@
         <v>13</v>
       </c>
       <c r="J225" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="K225" t="s">
         <v>79</v>
@@ -12270,31 +12241,31 @@
       <c r="L225" t="s">
         <v>700</v>
       </c>
-      <c r="M225" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="M225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B226" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C226" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D226" t="s">
         <v>20</v>
       </c>
-      <c r="E226" t="n">
-        <v>35.0</v>
+      <c r="E226">
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="G226" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H226" t="s">
         <v>31</v>
@@ -12303,7 +12274,7 @@
         <v>40</v>
       </c>
       <c r="J226" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="K226" t="s">
         <v>79</v>
@@ -12311,31 +12282,31 @@
       <c r="L226" t="s">
         <v>700</v>
       </c>
-      <c r="M226" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="227">
+      <c r="M226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B227" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C227" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D227" t="s">
         <v>20</v>
       </c>
-      <c r="E227" t="n">
-        <v>35.0</v>
+      <c r="E227">
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G227" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H227" t="s">
         <v>31</v>
@@ -12344,7 +12315,7 @@
         <v>659</v>
       </c>
       <c r="J227" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="K227" t="s">
         <v>79</v>
@@ -12352,8 +12323,8 @@
       <c r="L227" t="s">
         <v>700</v>
       </c>
-      <c r="M227" t="n">
-        <v>2.0</v>
+      <c r="M227">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/VendasFibra2024.xlsx
+++ b/VendasFibra2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meus Arquivos\Minhas Vendas\Oi Fibra\Programas Venndas\VendasFibra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF94D43-3ED6-4154-8D77-B523BBCDC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163947C1-597F-45C3-819F-E9E273FC8083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="15" windowWidth="15375" windowHeight="7785" xr2:uid="{742CA038-B0DB-4BA3-ACDE-84327AB07010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{742CA038-B0DB-4BA3-ACDE-84327AB07010}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1301">
   <si>
     <t>CPF</t>
   </si>
@@ -2590,68 +2590,1571 @@
     <t>22/06/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">
+* Alterado em 20/06/2024 13:33 *</t>
+  </si>
+  <si>
+    <t>12185462717</t>
+  </si>
+  <si>
+    <t>Alixandrina Menezes Cerqueira</t>
+  </si>
+  <si>
+    <t>27988721519</t>
+  </si>
+  <si>
+    <t>20/06/2024 17:33</t>
+  </si>
+  <si>
+    <t>01676084363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMUNDA KATIA COUTINHO DA SILVA </t>
+  </si>
+  <si>
+    <t>62982021942 / 62985440316</t>
+  </si>
+  <si>
+    <t>20/06/2024 17:49</t>
+  </si>
+  <si>
+    <t>56405952053</t>
+  </si>
+  <si>
+    <t>ALDO DA ROSA</t>
+  </si>
+  <si>
+    <t>51993528298 / 51984700427</t>
+  </si>
+  <si>
+    <t>21/06/2024 16:11</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 21/06/2024 16:13 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 21/06/2024 17:58 *</t>
+  </si>
+  <si>
+    <t>10877578788</t>
+  </si>
+  <si>
+    <t>Priscilla Cristina Magalhães de Souza</t>
+  </si>
+  <si>
+    <t>24992934040</t>
+  </si>
+  <si>
+    <t>24/06/2024 16:35</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação</t>
+  </si>
+  <si>
+    <t>93686153068</t>
+  </si>
+  <si>
+    <t>Juventino Padilha</t>
+  </si>
+  <si>
+    <t>54996532610 / 54984241699</t>
+  </si>
+  <si>
+    <t>25/06/2024 11:29</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>00756873649</t>
+  </si>
+  <si>
+    <t>Irondi Alves Lemos</t>
+  </si>
+  <si>
+    <t>31991466792</t>
+  </si>
+  <si>
+    <t>25/06/2024 16:58</t>
+  </si>
+  <si>
+    <t>01193695759</t>
+  </si>
+  <si>
+    <t>Alessandra dos Santos Poli</t>
+  </si>
+  <si>
+    <t>21999986365</t>
+  </si>
+  <si>
+    <t>26/06/2024 14:20</t>
+  </si>
+  <si>
+    <t>76193349200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antônia zilma da Silva sousa </t>
+  </si>
+  <si>
+    <t>61981275360 /  61981275282</t>
+  </si>
+  <si>
+    <t>26/06/2024 15:02</t>
+  </si>
+  <si>
+    <t>10141622709</t>
+  </si>
+  <si>
+    <t>Rosimeri durr de Paula</t>
+  </si>
+  <si>
+    <t>21971233841 /  21966447836</t>
+  </si>
+  <si>
+    <t>26/06/2024 16:03</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>deu ruim na ligacao sisrema parou de funcionar
+* Alterado em 21/06/2024 17:55 *
+* Alterado em 26/06/2024 19:40 *</t>
+  </si>
+  <si>
     <t>Sem Ligação
 Parcial 
 refez a venda 
-* Alterado em 20/06/2024 13:17 *</t>
+* Alterado em 20/06/2024 13:17 *
+* Alterado em 26/06/2024 19:41 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 26/06/2024 19:41 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+remarcar para sabado
+* Alterado em 26/06/2024 19:47 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação / fiz venda no médico 
+* Alterado em 27/06/2024 14:06 *</t>
+  </si>
+  <si>
+    <t>75263203004</t>
+  </si>
+  <si>
+    <t>JOCELAINE APARECIDA CANTERLE CISCATO</t>
+  </si>
+  <si>
+    <t>55996663561 / 55999545325</t>
+  </si>
+  <si>
+    <t>27/06/2024 19:15</t>
+  </si>
+  <si>
+    <t>03318198056</t>
+  </si>
+  <si>
+    <t>marlon Cristian Winck</t>
+  </si>
+  <si>
+    <t>51997987092 / 51998274979</t>
+  </si>
+  <si>
+    <t>27/06/2024 19:22</t>
+  </si>
+  <si>
+    <t>05455234781</t>
+  </si>
+  <si>
+    <t>JOICE FERNANDA FERREIRA GENEFRA</t>
+  </si>
+  <si>
+    <t>21990410842 / 21991878082</t>
+  </si>
+  <si>
+    <t>27/06/2024 19:45</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 28/06/2024 13:45 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 28/06/2024 13:46 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 28/06/2024 13:47 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação / não consigo devido que estava no Hospital 
+* Alterado em 27/06/2024 14:05 *
+* Alterado em 28/06/2024 13:48 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 28/06/2024 13:51 *</t>
+  </si>
+  <si>
+    <t>63530090034</t>
+  </si>
+  <si>
+    <t>MARGARIDA ALVES SILVEIRA</t>
+  </si>
+  <si>
+    <t>51997242330</t>
+  </si>
+  <si>
+    <t>28/06/2024 15:46</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
+    <t>84129581015</t>
+  </si>
+  <si>
+    <t>Jorge  Eli fraga paim</t>
+  </si>
+  <si>
+    <t>51996381179 /  51999004366</t>
+  </si>
+  <si>
+    <t>01/07/2024 11:21</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>48717304172</t>
+  </si>
+  <si>
+    <t>Marilene Marcia Rodrigues da SilvaMarilene Marcia Rodrigues da Silva</t>
+  </si>
+  <si>
+    <t>65998037384 / 65996402916</t>
+  </si>
+  <si>
+    <t>01/07/2024 15:36</t>
+  </si>
+  <si>
+    <t>67865305249</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES FERREIRA QUADROS</t>
+  </si>
+  <si>
+    <t>91982372426 / 91985997683</t>
+  </si>
+  <si>
+    <t>02/07/2024 12:47</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 02/07/2024 18:39 *</t>
+  </si>
+  <si>
+    <t>07470660941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueline correa da Silva </t>
+  </si>
+  <si>
+    <t>03/07/2024 10:17</t>
+  </si>
+  <si>
+    <t>PRIORIZA PARA SABADO DE MANHÃ
+* Alterado em 27/06/2024 19:56 *
+* Alterado em 27/06/2024 21:30 *
+* Alterado em 01/07/2024 09:39 *
+* Alterado em 03/07/2024 13:04 *</t>
+  </si>
+  <si>
+    <t>05781047921</t>
+  </si>
+  <si>
+    <t>Fernando de andrade</t>
+  </si>
+  <si>
+    <t>41996038200 / 41997913932</t>
+  </si>
+  <si>
+    <t>03/07/2024 14:13</t>
+  </si>
+  <si>
+    <t>4797184288 / 47996758071</t>
   </si>
   <si>
     <t xml:space="preserve">
-* Alterado em 20/06/2024 13:33 *</t>
-  </si>
-  <si>
-    <t>12185462717</t>
-  </si>
-  <si>
-    <t>Alixandrina Menezes Cerqueira</t>
-  </si>
-  <si>
-    <t>27988721519</t>
-  </si>
-  <si>
-    <t>20/06/2024 17:33</t>
-  </si>
-  <si>
-    <t>01676084363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMUNDA KATIA COUTINHO DA SILVA </t>
-  </si>
-  <si>
-    <t>62982021942 / 62985440316</t>
-  </si>
-  <si>
-    <t>20/06/2024 17:49</t>
-  </si>
-  <si>
-    <t>56405952053</t>
-  </si>
-  <si>
-    <t>ALDO DA ROSA</t>
-  </si>
-  <si>
-    <t>51993528298 / 51984700427</t>
-  </si>
-  <si>
-    <t>21/06/2024 16:11</t>
+* Alterado em 03/07/2024 14:43 *
+* Alterado em 04/07/2024 12:54 *</t>
   </si>
   <si>
     <t>Sem Ligação
-* Alterado em 21/06/2024 16:13 *</t>
-  </si>
-  <si>
-    <t>deu ruim na ligacao sisrema parou de funcionar
-* Alterado em 21/06/2024 17:55 *</t>
+* Alterado em 03/07/2024 14:13 *
+* Alterado em 04/07/2024 12:55 *</t>
   </si>
   <si>
     <t>Sem Ligação
-* Alterado em 21/06/2024 17:58 *</t>
+* Alterado em 01/07/2024 13:01 *
+* Alterado em 04/07/2024 12:56 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 04/07/2024 13:00 *</t>
+  </si>
+  <si>
+    <t>07665889123</t>
+  </si>
+  <si>
+    <t>Jennifer santos amorim</t>
+  </si>
+  <si>
+    <t>62992904196</t>
+  </si>
+  <si>
+    <t>05/07/2024 17:30</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 08/07/2024 11:45 *</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>05704311741</t>
+  </si>
+  <si>
+    <t>22997455813</t>
+  </si>
+  <si>
+    <t>08/07/2024 11:58</t>
+  </si>
+  <si>
+    <t>87316714972</t>
+  </si>
+  <si>
+    <t>Lucimar Leme Barbosa</t>
+  </si>
+  <si>
+    <t>41997590491</t>
+  </si>
+  <si>
+    <t>08/07/2024 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 08/07/2024 16:44 *
+* Alterado em 09/07/2024 11:27 *</t>
+  </si>
+  <si>
+    <t>SKY Wallace Bartholomeu de Andrade</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+VENDA SKY
+* Alterado em 08/07/2024 11:59 *
+* Alterado em 09/07/2024 11:34 *</t>
+  </si>
+  <si>
+    <t>40986969400</t>
+  </si>
+  <si>
+    <t>Ana Neris Medeiros</t>
+  </si>
+  <si>
+    <t>47997798569</t>
+  </si>
+  <si>
+    <t>11/07/2024 14:08</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>03501562047</t>
+  </si>
+  <si>
+    <t>Claudia olicia alves</t>
+  </si>
+  <si>
+    <t>53991151242 / 53999131550</t>
+  </si>
+  <si>
+    <t>11/07/2024 16:38</t>
+  </si>
+  <si>
+    <t>13/07/2024</t>
+  </si>
+  <si>
+    <t>00397582730</t>
+  </si>
+  <si>
+    <t>ADIA MARIA COSTA DOMINGOS DE SOUZA</t>
+  </si>
+  <si>
+    <t>21989507500 / 21987504719</t>
+  </si>
+  <si>
+    <t>12/07/2024 19:46</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 12/07/2024 19:46 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 11/07/2024 14:32 *
+* Alterado em 12/07/2024 15:41 *
+* Alterado em 13/07/2024 11:40 *</t>
+  </si>
+  <si>
+    <t>61711535320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flávio Epifanio Matias Pereira </t>
+  </si>
+  <si>
+    <t>69999504332 / 69992553563</t>
+  </si>
+  <si>
+    <t>13/07/2024 12:46</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 13/07/2024 13:06 *
+* Alterado em 15/07/2024 14:07 *</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>24287920163</t>
+  </si>
+  <si>
+    <t>Adair Marques Vargas</t>
+  </si>
+  <si>
+    <t>62992269032 / 62993564455</t>
+  </si>
+  <si>
+    <t>15/07/2024 18:54</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>12214144706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Cristina Gomes Nascimento </t>
+  </si>
+  <si>
+    <t>24998543386 / 24999940401</t>
+  </si>
+  <si>
+    <t>16/07/2024 17:43</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+deu ruim na venda pois colocou bloco errado
+* Alterado em 15/07/2024 15:17 *
+* Alterado em 16/07/2024 18:32 *</t>
+  </si>
+  <si>
+    <t>22016785705</t>
+  </si>
+  <si>
+    <t>24999830919 /24992001284</t>
+  </si>
+  <si>
+    <t>16/07/2024 19:41</t>
+  </si>
+  <si>
+    <t>Ingrid Ribeiro</t>
+  </si>
+  <si>
+    <t>20/07/2024</t>
+  </si>
+  <si>
+    <t>09106891721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Henrique de Souza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">219967736897 / 21984055460 </t>
+  </si>
+  <si>
+    <t>17/07/2024 17:57</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+remarcado para dia 18 pois o tecnico não foi ao local
+* Alterado em 17/07/2024 19:44 *
+* Alterado em 18/07/2024 15:01 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 16/07/2024 19:54 *
+* Alterado em 18/07/2024 15:02 *</t>
+  </si>
+  <si>
+    <t>28550226149</t>
+  </si>
+  <si>
+    <t>Abgail Gomes de Souza</t>
+  </si>
+  <si>
+    <t>67991220672 / 67991907867</t>
+  </si>
+  <si>
+    <t>18/07/2024 15:28</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>remarcado para dia 18 pois não instalou
+* Alterado em 18/07/2024 18:05 *
+* Alterado em 19/07/2024 12:38 *</t>
+  </si>
+  <si>
+    <t>05150489255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kellen Tawane Vieira Dantas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69984593479  / 69993704877   </t>
+  </si>
+  <si>
+    <t>19/07/2024 15:20</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 19/07/2024 15:54 *</t>
+  </si>
+  <si>
+    <t>90687590272</t>
+  </si>
+  <si>
+    <t>Maria de nazare gemaque magn</t>
+  </si>
+  <si>
+    <t>91992712655 / 91985276927</t>
+  </si>
+  <si>
+    <t>19/07/2024 16:09</t>
+  </si>
+  <si>
+    <t>10324751532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taíse Araújo dos Santos </t>
+  </si>
+  <si>
+    <t>31991581649</t>
+  </si>
+  <si>
+    <t>20/07/2024 09:23</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 19/07/2024 15:34 *
+* Alterado em 20/07/2024 16:35 *</t>
+  </si>
+  <si>
+    <t>05237731619</t>
+  </si>
+  <si>
+    <t>Grazielle Zile Bertolini</t>
+  </si>
+  <si>
+    <t>21998535135</t>
+  </si>
+  <si>
+    <t>22/07/2024 10:48</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 22/07/2024 10:48 *</t>
+  </si>
+  <si>
+    <t>14192252783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhurly Brandão prudente </t>
+  </si>
+  <si>
+    <t>62998564453 / 62998628543</t>
+  </si>
+  <si>
+    <t>22/07/2024 12:46</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>08329951774</t>
+  </si>
+  <si>
+    <t>LUCIA RAMOS DA SILVA</t>
+  </si>
+  <si>
+    <t>21979922015 / 21965415140</t>
+  </si>
+  <si>
+    <t>23/07/2024 16:13</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 16/07/2024 16:43 *
+NÃO INSTALOU REMARCOU PARA SABADO
+* Alterado em 17/07/2024 16:32 *
+* Alterado em 23/07/2024 16:50 *</t>
+  </si>
+  <si>
+    <t>08521415648</t>
+  </si>
+  <si>
+    <t>Ana Paula Gomes migliorini</t>
+  </si>
+  <si>
+    <t>32984135848</t>
+  </si>
+  <si>
+    <t>23/07/2024 17:20</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>14421626600</t>
+  </si>
+  <si>
+    <t>Jeverson Marcos Miranda</t>
+  </si>
+  <si>
+    <t>38998046408</t>
+  </si>
+  <si>
+    <t>23/07/2024 18:05</t>
+  </si>
+  <si>
+    <t>Sem Ligação - tentou 3 x
+* Alterado em 22/07/2024 11:30 *
+* Alterado em 24/07/2024 12:20 *</t>
+  </si>
+  <si>
+    <t>81436416000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mara Cristina Mendonça Borges </t>
+  </si>
+  <si>
+    <t>51996630236</t>
+  </si>
+  <si>
+    <t>24/07/2024 14:31</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>66863260034</t>
+  </si>
+  <si>
+    <t>Márcia marques da silva</t>
+  </si>
+  <si>
+    <t>51993689964 / 51997480757</t>
+  </si>
+  <si>
+    <t>24/07/2024 19:13</t>
+  </si>
+  <si>
+    <t>05082588982</t>
+  </si>
+  <si>
+    <t>EVALINA NUNES FLORES</t>
+  </si>
+  <si>
+    <t>47996621048 / 47984298470</t>
+  </si>
+  <si>
+    <t>25/07/2024 10:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 25/07/2024 12:50 *</t>
+  </si>
+  <si>
+    <t>27/07/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 23/07/2024 19:51 *
+* Alterado em 24/07/2024 12:21 *
+* Alterado em 25/07/2024 15:31 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 25/07/2024 17:01 *</t>
+  </si>
+  <si>
+    <t>26114863879</t>
+  </si>
+  <si>
+    <t>LUCIANA DE MORAES RIBEIRO</t>
+  </si>
+  <si>
+    <t>41998676246 / 41998353755</t>
+  </si>
+  <si>
+    <t>25/07/2024 18:19</t>
+  </si>
+  <si>
+    <t>mãe te passou 
+Sem Ligação
+* Alterado em 26/07/2024 11:45 *</t>
+  </si>
+  <si>
+    <t>17191696249</t>
+  </si>
+  <si>
+    <t>Jose Pereira da Silva</t>
+  </si>
+  <si>
+    <t>91982644797 / 91987567934</t>
+  </si>
+  <si>
+    <t>26/07/2024 14:11</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 27/07/2024 18:15 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 29/07/2024 11:16 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 22/07/2024 15:51 *
+* Alterado em 25/07/2024 13:07 *
+cliente desistiu de esperar o tecnico
+* Alterado em 29/07/2024 11:51 *</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>53864530253</t>
+  </si>
+  <si>
+    <t>Maria Aparecida da silva</t>
+  </si>
+  <si>
+    <t>91981387391</t>
+  </si>
+  <si>
+    <t>29/07/2024 14:19</t>
+  </si>
+  <si>
+    <t>60540010600</t>
+  </si>
+  <si>
+    <t>Maria Geralda soares silva</t>
+  </si>
+  <si>
+    <t>32991512954 / 22988334554</t>
+  </si>
+  <si>
+    <t>29/07/2024 15:10</t>
+  </si>
+  <si>
+    <t>90424484234</t>
+  </si>
+  <si>
+    <t>Klicia Maria Pedrosa Farias</t>
+  </si>
+  <si>
+    <t>69999651776 / 69999651776</t>
+  </si>
+  <si>
+    <t>29/07/2024 16:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 30/07/2024 11:58 *</t>
+  </si>
+  <si>
+    <t>remarcado para terca na parte da manhã
+* Alterado em 29/07/2024 12:16 *
+* Alterado em 30/07/2024 11:59 *</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>70389604151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Oliveira Bezerra </t>
+  </si>
+  <si>
+    <t>62992873388 / 62995799364</t>
+  </si>
+  <si>
+    <t>30/07/2024 18:01</t>
+  </si>
+  <si>
+    <t>03437212605</t>
+  </si>
+  <si>
+    <t>Cleusa tostes</t>
+  </si>
+  <si>
+    <t>31971370799 / 31998568570</t>
+  </si>
+  <si>
+    <t>30/07/2024 18:17</t>
+  </si>
+  <si>
+    <t>Sem Ligação - não conseguiu ligar
+* Alterado em 30/07/2024 18:17 *</t>
+  </si>
+  <si>
+    <t>20666442770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyovanna Gomes Correa </t>
+  </si>
+  <si>
+    <t>21980791266 / 21979143455</t>
+  </si>
+  <si>
+    <t>31/07/2024 13:07</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>03793686256</t>
+  </si>
+  <si>
+    <t>Fábio Danilo Amaral Cruz</t>
+  </si>
+  <si>
+    <t>91989539715 / 91981798081</t>
+  </si>
+  <si>
+    <t>31/07/2024 13:43</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 30/07/2024 18:18 *
+* Alterado em 31/07/2024 18:31 *</t>
+  </si>
+  <si>
+    <t>Local fechado
+* Alterado em 30/07/2024 12:07 *
+reafendado para dia 31 na tarde
+* Alterado em 30/07/2024 15:14 *
+* Alterado em 31/07/2024 18:32 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 31/07/2024 19:39 *</t>
+  </si>
+  <si>
+    <t>18535595716</t>
+  </si>
+  <si>
+    <t>Priscila aparecida amorim Silva</t>
+  </si>
+  <si>
+    <t>21967071361 / 21980361020</t>
+  </si>
+  <si>
+    <t>01/08/2024 09:48</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação - não conseguiu ligar
+* Alterado em 01/08/2024 14:13 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+Cancelado pelo tecnico por ser AREA DE RISCO
+* Alterado em 01/08/2024 14:31 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 24/07/2024 12:17 *
+remarcou para savado
+* Alterado em 25/07/2024 13:58 *
+* Alterado em 25/07/2024 13:58 *
+* Alterado em 30/07/2024 14:35 *</t>
+  </si>
+  <si>
+    <t>09174702149</t>
+  </si>
+  <si>
+    <t>Claudete Anache Marsiglia</t>
+  </si>
+  <si>
+    <t>67992919668 / 67992170154</t>
+  </si>
+  <si>
+    <t>01/08/2024 18:11</t>
+  </si>
+  <si>
+    <t>63587920672</t>
+  </si>
+  <si>
+    <t>HELENICE DE FATIMA ALVES DIAS.</t>
+  </si>
+  <si>
+    <t>31971283321</t>
+  </si>
+  <si>
+    <t>01/08/2024 18:53</t>
+  </si>
+  <si>
+    <t>22015832777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISABELA MOZER DE MOURA DO NASCIMENTO </t>
+  </si>
+  <si>
+    <t>24998134291 / 24992950282</t>
+  </si>
+  <si>
+    <t>02/08/2024 09:29</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação - não conseguiu ligar
+* Alterado em 02/08/2024 11:08 *</t>
+  </si>
+  <si>
+    <t>56156766987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Odette Damico Jorge </t>
+  </si>
+  <si>
+    <t>42984059395 / 42999236709</t>
+  </si>
+  <si>
+    <t>02/08/2024 11:50</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 02/08/2024 12:29 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 02/08/2024 12:30 *</t>
+  </si>
+  <si>
+    <t>70779528190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Rodrigues </t>
+  </si>
+  <si>
+    <t>62992737584 / 62991675271</t>
+  </si>
+  <si>
+    <t>02/08/2024 13:16</t>
+  </si>
+  <si>
+    <t>16206356744</t>
+  </si>
+  <si>
+    <t>Cristiano Oliveira dos Santos</t>
+  </si>
+  <si>
+    <t>27995013591 / 28999685314</t>
+  </si>
+  <si>
+    <t>02/08/2024 13:29</t>
+  </si>
+  <si>
+    <t>63495171134</t>
+  </si>
+  <si>
+    <t>José dos Santos Silva</t>
+  </si>
+  <si>
+    <t>61993062039 / 61983773564</t>
+  </si>
+  <si>
+    <t>02/08/2024 16:44</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 03/08/2024 17:52 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação - não conseguiu ligar
+* Alterado em 05/08/2024 12:40 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 05/08/2024 13:22 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 24/07/2024 12:21 *
+remarcado para 26
+* Alterado em 25/07/2024 15:28 
+REGRA DE PDV - CONTOU PARA VOCE
+* Alterado em 05/07/2024 13:28 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+PRIORIZAR PARA AMANHA
+* Alterado em 01/07/2024 09:37 *
+* Alterado em 01/07/2024 15:39 *
+pediu para reagendar - lembrar de avisar ele sobre a remarcação
+* Alterado em 02/07/2024 18:40 *
+* Alterado em 08/07/2024 11:48 *
+* Alterado em 09/07/2024 12:33 *
+* Alterado em 18/07/2024 16:56 *
+* Alterado em 05/07/2024 13:30 *</t>
+  </si>
+  <si>
+    <t>10845296701</t>
+  </si>
+  <si>
+    <t>Jaqueline maria Teixeira tosca</t>
+  </si>
+  <si>
+    <t>21980793884 / 21994954490</t>
+  </si>
+  <si>
+    <t>05/08/2024 17:11</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>91874769249</t>
+  </si>
+  <si>
+    <t>Carla thuani pinheiro meguy</t>
+  </si>
+  <si>
+    <t>91982368112 / 91981797819</t>
+  </si>
+  <si>
+    <t>05/08/2024 20:46</t>
+  </si>
+  <si>
+    <t>Sem Ligação - não conseguiu ligar
+* Alterado em 07/08/2024 11:12 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 07/08/2024 11:14 *</t>
+  </si>
+  <si>
+    <t>04418357408</t>
+  </si>
+  <si>
+    <t>Ednaldo roberto de lima</t>
+  </si>
+  <si>
+    <t>21980048557</t>
+  </si>
+  <si>
+    <t>07/08/2024 17:46</t>
+  </si>
+  <si>
+    <t>09061881307</t>
+  </si>
+  <si>
+    <t>Valderson ribeiro maia</t>
+  </si>
+  <si>
+    <t>98984551978 / 98984725679</t>
+  </si>
+  <si>
+    <t>08/08/2024 10:57</t>
+  </si>
+  <si>
+    <t>09/08/2024</t>
+  </si>
+  <si>
+    <t>36972541204</t>
+  </si>
+  <si>
+    <t>Divina Alves do couto</t>
+  </si>
+  <si>
+    <t>62982723966 / 62981154859</t>
+  </si>
+  <si>
+    <t>09/08/2024 14:27</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 09/08/2024 14:31 *</t>
+  </si>
+  <si>
+    <t>02986498370</t>
+  </si>
+  <si>
+    <t>MARIA JANICLEIA DE OLIVEIRA LOPES</t>
+  </si>
+  <si>
+    <t>85988946601</t>
+  </si>
+  <si>
+    <t>09/08/2024 16:51</t>
+  </si>
+  <si>
+    <t>10/08/2024</t>
+  </si>
+  <si>
+    <t>01916917208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erick Yender Costa Chagas</t>
+  </si>
+  <si>
+    <t>92991634991</t>
+  </si>
+  <si>
+    <t>09/08/2024 17:22</t>
+  </si>
+  <si>
+    <t>96362430000</t>
+  </si>
+  <si>
+    <t>51993617539</t>
+  </si>
+  <si>
+    <t>09/08/2024 17:41</t>
+  </si>
+  <si>
+    <t>Felipe rosa neto</t>
+  </si>
+  <si>
+    <t>Sem Ligação- nao conseguiu ligar
+RISCO DE NAO INSTALAR DEVIDO QUE VAO ESTAR ATE AS 15:00
+* Alterado em 09/08/2024 17:45 *
+* Alterado em 12/08/2024 10:45 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 12/08/2024 10:46 *</t>
+  </si>
+  <si>
+    <t>01485491363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raimundo Nonato da Costa Raimundo Nonato da Costa </t>
+  </si>
+  <si>
+    <t>66999578224 / 66992328480</t>
+  </si>
+  <si>
+    <t>12/08/2024 12:22</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>01461006031</t>
+  </si>
+  <si>
+    <t>Cristiane Nassif Gomes</t>
+  </si>
+  <si>
+    <t>41988066748 / 41991977193</t>
+  </si>
+  <si>
+    <t>12/08/2024 13:17</t>
+  </si>
+  <si>
+    <t>04014789632</t>
+  </si>
+  <si>
+    <t>Daniel Pereira de Andrade e Silva</t>
+  </si>
+  <si>
+    <t>31999166160</t>
+  </si>
+  <si>
+    <t>12/08/2024 18:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 12/08/2024 19:05 *</t>
+  </si>
+  <si>
+    <t>Risco de cancelar pois colocou lote 01 sendo que e lote 02
+* Alterado em 02/08/2024 16:44 *
+* Alterado em 12/08/2024 19:33 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 07/08/2024 14:02 *
+* Alterado em 12/08/2024 19:33 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 13/08/2024 10:51 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 13/08/2024 12:56 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 13/08/2024 14:03 *
+* Alterado em 13/08/2024 18:58 *</t>
+  </si>
+  <si>
+    <t>80713858087</t>
+  </si>
+  <si>
+    <t>Patricia Machado da Rosa</t>
+  </si>
+  <si>
+    <t>51984220696</t>
+  </si>
+  <si>
+    <t>13/08/2024 19:18</t>
+  </si>
+  <si>
+    <t>17/08/2024</t>
+  </si>
+  <si>
+    <t>00577666061</t>
+  </si>
+  <si>
+    <t>ELIANE DA SILVA ALVES</t>
+  </si>
+  <si>
+    <t>54981318475 / 54991157947</t>
+  </si>
+  <si>
+    <t>14/08/2024 11:26</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>78633044072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Grahl Rodrigues </t>
+  </si>
+  <si>
+    <t>51982038183</t>
+  </si>
+  <si>
+    <t>14/08/2024 13:11</t>
+  </si>
+  <si>
+    <t>00488242169</t>
+  </si>
+  <si>
+    <t>MARIA EUNICE MACEDO DA SILVA</t>
+  </si>
+  <si>
+    <t>66996159066 /66996257567</t>
+  </si>
+  <si>
+    <t>14/08/2024 13:48</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>13551111960</t>
+  </si>
+  <si>
+    <t>Heloísa konoski Fernandes</t>
+  </si>
+  <si>
+    <t>44991436470 / 44987159748</t>
+  </si>
+  <si>
+    <t>14/08/2024 18:39</t>
+  </si>
+  <si>
+    <t>31114194000180</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>21990366395 / 21999021061</t>
+  </si>
+  <si>
+    <t>14/08/2024 18:51</t>
+  </si>
+  <si>
+    <t>32309880434</t>
+  </si>
+  <si>
+    <t>Gilvan DantasGilvan Dantas</t>
+  </si>
+  <si>
+    <t>84986140619 / 84981214236</t>
+  </si>
+  <si>
+    <t>14/08/2024 19:43</t>
+  </si>
+  <si>
+    <t>05326403226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela do Carmo Moraes </t>
+  </si>
+  <si>
+    <t>91982964795</t>
+  </si>
+  <si>
+    <t>14/08/2024 20:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 15/08/2024 12:29 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação - risco cpf de outra titutal de mesmo nome
+* Alterado em 15/08/2024 12:30 *</t>
+  </si>
+  <si>
+    <t>07319349973</t>
+  </si>
+  <si>
+    <t>Gleici kelly lucio</t>
+  </si>
+  <si>
+    <t>43999343026 / 43999785109</t>
+  </si>
+  <si>
+    <t>15/08/2024 13:38</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+REMARCADO DE 12 PARA 15 DE TADE
+* Alterado em 14/08/2024 11:59 *
+* Alterado em 15/08/2024 14:26 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+REMARCADO DE DIA 08 PARA DIA 13 - TECNOCP NAO INSTALOU
+* Alterado em 12/08/2024 19:31 *
+* Alterado em 13/08/2024 14:03 *
+* Alterado em 13/08/2024 14:04 *
+* Alterado em 15/08/2024 17:20 *</t>
+  </si>
+  <si>
+    <t>DADOS INSERIDO DIFERENTE DA LIGAÇÃO - RISCO DE B.O
+gerou  2x precisa cancelar o de 600MB e deixar o de 400mb
+* Alterado em 14/08/2024 19:56 *
+cancelado e cliente nao responde
+* Alterado em 15/08/2024 17:21 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 15/08/2024 17:50 *</t>
+  </si>
+  <si>
+    <t>83155864249</t>
+  </si>
+  <si>
+    <t>ELYSON GONZAGA QUEIROZ</t>
+  </si>
+  <si>
+    <t>92988526499 / 92984747503</t>
+  </si>
+  <si>
+    <t>16/08/2024 11:24</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>85599360920</t>
+  </si>
+  <si>
+    <t>Maria Aparecida da Silva Penhabel</t>
+  </si>
+  <si>
+    <t>41998776303</t>
+  </si>
+  <si>
+    <t>16/08/2024 12:12</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>nao conseguiu ligar
+Risco de nao instalar, pois colocou casa 1 ou a sendo que tinha que colocar casa 3
+* Alterado em 16/08/2024 12:14 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação - nao conseguiu ligar
+remarcado de dia 16 para 17 pois deu Local fechado
+* Alterado em 16/08/2024 14:02 *</t>
+  </si>
+  <si>
+    <t>00802416209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiane vagna correia </t>
+  </si>
+  <si>
+    <t>69992683689</t>
+  </si>
+  <si>
+    <t>16/08/2024 15:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sem Ligação</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 16/08/2024 18:01 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+* Alterado em 16/08/2024 20:39 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação
+reagendado de 16 ´para 19/08
+* Alterado em 16/08/2024 20:40 *</t>
+  </si>
+  <si>
+    <t>22031464272</t>
+  </si>
+  <si>
+    <t>ANTONIO PASOS BATISTA DA SILVA</t>
+  </si>
+  <si>
+    <t>69981554104</t>
+  </si>
+  <si>
+    <t>17/08/2024 10:27</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 17/08/2024 12:16 *
+* Alterado em 17/08/2024 12:31 *
+* Alterado em 17/08/2024 12:41 *
+* Alterado em 17/08/2024 12:50 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 17/08/2024 12:51 *
+* Alterado em 17/08/2024 12:53 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 17/08/2024 12:51 *
+* Alterado em 17/08/2024 12:53 *
+* Alterado em 17/08/2024 12:55 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Alterado em 17/08/2024 13:00 *</t>
+  </si>
+  <si>
+    <t>Sem Ligação - nao conseguiu ligar
+remarcado de dia 16 para 17 pois deu Local fechado
+* Alterado em 16/08/2024 14:02 *
+* Alterado em 17/08/2024 19:16 *</t>
+  </si>
+  <si>
+    <t>01396763090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Gonçalves </t>
+  </si>
+  <si>
+    <t>51981644130 / 51984088241</t>
+  </si>
+  <si>
+    <t>19/08/2024 19:01</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>01268501948</t>
+  </si>
+  <si>
+    <t>MAIARA DILES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>45998382640 / 45999551556</t>
+  </si>
+  <si>
+    <t>20/08/2024 15:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3081,24 +4584,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FB7FFF-F91F-42C2-B8DB-59A867BA1007}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M1048575"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="10.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="31.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11234,7 +12737,7 @@
         <v>12</v>
       </c>
       <c r="E201" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>688</v>
@@ -11316,7 +12819,7 @@
         <v>20</v>
       </c>
       <c r="E203" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F203" s="1">
         <v>45443.564583333333</v>
@@ -11357,7 +12860,7 @@
         <v>20</v>
       </c>
       <c r="E204" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F204" s="1">
         <v>45446.553472222222</v>
@@ -11398,7 +12901,7 @@
         <v>20</v>
       </c>
       <c r="E205" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
         <v>721</v>
@@ -11439,7 +12942,7 @@
         <v>20</v>
       </c>
       <c r="E206" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
         <v>730</v>
@@ -11480,7 +12983,7 @@
         <v>20</v>
       </c>
       <c r="E207" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
         <v>735</v>
@@ -11521,7 +13024,7 @@
         <v>20</v>
       </c>
       <c r="E208" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
         <v>742</v>
@@ -11562,7 +13065,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
         <v>746</v>
@@ -11603,7 +13106,7 @@
         <v>20</v>
       </c>
       <c r="E210" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F210" t="s">
         <v>755</v>
@@ -11644,7 +13147,7 @@
         <v>20</v>
       </c>
       <c r="E211" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F211" t="s">
         <v>758</v>
@@ -11685,7 +13188,7 @@
         <v>20</v>
       </c>
       <c r="E212" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
         <v>764</v>
@@ -11726,7 +13229,7 @@
         <v>773</v>
       </c>
       <c r="E213">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
         <v>774</v>
@@ -11767,7 +13270,7 @@
         <v>12</v>
       </c>
       <c r="E214">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
         <v>779</v>
@@ -11808,7 +13311,7 @@
         <v>20</v>
       </c>
       <c r="E215">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
         <v>783</v>
@@ -11849,7 +13352,7 @@
         <v>20</v>
       </c>
       <c r="E216">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F216" t="s">
         <v>788</v>
@@ -11890,7 +13393,7 @@
         <v>20</v>
       </c>
       <c r="E217">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
         <v>793</v>
@@ -11931,7 +13434,7 @@
         <v>20</v>
       </c>
       <c r="E218">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F218" t="s">
         <v>799</v>
@@ -11972,7 +13475,7 @@
         <v>20</v>
       </c>
       <c r="E219">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F219" t="s">
         <v>803</v>
@@ -12013,7 +13516,7 @@
         <v>20</v>
       </c>
       <c r="E220">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
         <v>808</v>
@@ -12054,7 +13557,7 @@
         <v>20</v>
       </c>
       <c r="E221">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
         <v>814</v>
@@ -12095,7 +13598,7 @@
         <v>20</v>
       </c>
       <c r="E222">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
         <v>822</v>
@@ -12136,7 +13639,7 @@
         <v>20</v>
       </c>
       <c r="E223">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F223" t="s">
         <v>828</v>
@@ -12148,16 +13651,16 @@
         <v>31</v>
       </c>
       <c r="I223" t="s">
-        <v>659</v>
+        <v>40</v>
       </c>
       <c r="J223" t="s">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="K223" t="s">
         <v>79</v>
       </c>
       <c r="L223" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M223">
         <v>2</v>
@@ -12177,7 +13680,7 @@
         <v>20</v>
       </c>
       <c r="E224">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F224" t="s">
         <v>835</v>
@@ -12192,7 +13695,7 @@
         <v>40</v>
       </c>
       <c r="J224" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K224" t="s">
         <v>79</v>
@@ -12206,22 +13709,22 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>838</v>
+      </c>
+      <c r="B225" t="s">
         <v>839</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>840</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225">
+        <v>45</v>
+      </c>
+      <c r="F225" t="s">
         <v>841</v>
-      </c>
-      <c r="D225" t="s">
-        <v>20</v>
-      </c>
-      <c r="E225">
-        <v>35</v>
-      </c>
-      <c r="F225" t="s">
-        <v>842</v>
       </c>
       <c r="G225" t="s">
         <v>831</v>
@@ -12233,7 +13736,7 @@
         <v>13</v>
       </c>
       <c r="J225" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K225" t="s">
         <v>79</v>
@@ -12247,22 +13750,22 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>842</v>
+      </c>
+      <c r="B226" t="s">
         <v>843</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>844</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226">
+        <v>45</v>
+      </c>
+      <c r="F226" t="s">
         <v>845</v>
-      </c>
-      <c r="D226" t="s">
-        <v>20</v>
-      </c>
-      <c r="E226">
-        <v>35</v>
-      </c>
-      <c r="F226" t="s">
-        <v>846</v>
       </c>
       <c r="G226" t="s">
         <v>831</v>
@@ -12274,7 +13777,7 @@
         <v>40</v>
       </c>
       <c r="J226" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K226" t="s">
         <v>79</v>
@@ -12288,22 +13791,22 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>846</v>
+      </c>
+      <c r="B227" t="s">
         <v>847</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>848</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>45</v>
+      </c>
+      <c r="F227" t="s">
         <v>849</v>
-      </c>
-      <c r="D227" t="s">
-        <v>20</v>
-      </c>
-      <c r="E227">
-        <v>35</v>
-      </c>
-      <c r="F227" t="s">
-        <v>850</v>
       </c>
       <c r="G227" t="s">
         <v>836</v>
@@ -12312,10 +13815,10 @@
         <v>31</v>
       </c>
       <c r="I227" t="s">
-        <v>659</v>
+        <v>40</v>
       </c>
       <c r="J227" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="K227" t="s">
         <v>79</v>
@@ -12325,6 +13828,3327 @@
       </c>
       <c r="M227">
         <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>852</v>
+      </c>
+      <c r="B228" t="s">
+        <v>853</v>
+      </c>
+      <c r="C228" t="s">
+        <v>854</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228">
+        <v>45</v>
+      </c>
+      <c r="F228" t="s">
+        <v>855</v>
+      </c>
+      <c r="G228" t="s">
+        <v>856</v>
+      </c>
+      <c r="H228" t="s">
+        <v>31</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228" t="s">
+        <v>882</v>
+      </c>
+      <c r="K228" t="s">
+        <v>79</v>
+      </c>
+      <c r="L228" t="s">
+        <v>700</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>858</v>
+      </c>
+      <c r="B229" t="s">
+        <v>859</v>
+      </c>
+      <c r="C229" t="s">
+        <v>860</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>40</v>
+      </c>
+      <c r="F229" t="s">
+        <v>861</v>
+      </c>
+      <c r="G229" t="s">
+        <v>862</v>
+      </c>
+      <c r="H229" t="s">
+        <v>73</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" t="s">
+        <v>883</v>
+      </c>
+      <c r="K229" t="s">
+        <v>79</v>
+      </c>
+      <c r="L229" t="s">
+        <v>702</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>863</v>
+      </c>
+      <c r="B230" t="s">
+        <v>864</v>
+      </c>
+      <c r="C230" t="s">
+        <v>865</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>40</v>
+      </c>
+      <c r="F230" t="s">
+        <v>866</v>
+      </c>
+      <c r="G230" t="s">
+        <v>856</v>
+      </c>
+      <c r="H230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" t="s">
+        <v>901</v>
+      </c>
+      <c r="K230" t="s">
+        <v>79</v>
+      </c>
+      <c r="L230" t="s">
+        <v>700</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>867</v>
+      </c>
+      <c r="B231" t="s">
+        <v>868</v>
+      </c>
+      <c r="C231" t="s">
+        <v>869</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231">
+        <v>45</v>
+      </c>
+      <c r="F231" t="s">
+        <v>870</v>
+      </c>
+      <c r="G231" t="s">
+        <v>862</v>
+      </c>
+      <c r="H231" t="s">
+        <v>73</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231" t="s">
+        <v>884</v>
+      </c>
+      <c r="K231" t="s">
+        <v>79</v>
+      </c>
+      <c r="L231" t="s">
+        <v>700</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>871</v>
+      </c>
+      <c r="B232" t="s">
+        <v>872</v>
+      </c>
+      <c r="C232" t="s">
+        <v>873</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232">
+        <v>45</v>
+      </c>
+      <c r="F232" t="s">
+        <v>874</v>
+      </c>
+      <c r="G232" t="s">
+        <v>879</v>
+      </c>
+      <c r="H232" t="s">
+        <v>73</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+      <c r="J232" t="s">
+        <v>900</v>
+      </c>
+      <c r="K232" t="s">
+        <v>79</v>
+      </c>
+      <c r="L232" t="s">
+        <v>700</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>875</v>
+      </c>
+      <c r="B233" t="s">
+        <v>876</v>
+      </c>
+      <c r="C233" t="s">
+        <v>877</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233">
+        <v>45</v>
+      </c>
+      <c r="F233" t="s">
+        <v>878</v>
+      </c>
+      <c r="G233" t="s">
+        <v>879</v>
+      </c>
+      <c r="H233" t="s">
+        <v>73</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" t="s">
+        <v>899</v>
+      </c>
+      <c r="K233" t="s">
+        <v>79</v>
+      </c>
+      <c r="L233" t="s">
+        <v>700</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>885</v>
+      </c>
+      <c r="B234" t="s">
+        <v>886</v>
+      </c>
+      <c r="C234" t="s">
+        <v>887</v>
+      </c>
+      <c r="D234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234">
+        <v>45</v>
+      </c>
+      <c r="F234" t="s">
+        <v>888</v>
+      </c>
+      <c r="G234" t="s">
+        <v>879</v>
+      </c>
+      <c r="H234" t="s">
+        <v>73</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" t="s">
+        <v>898</v>
+      </c>
+      <c r="K234" t="s">
+        <v>79</v>
+      </c>
+      <c r="L234" t="s">
+        <v>700</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>889</v>
+      </c>
+      <c r="B235" t="s">
+        <v>890</v>
+      </c>
+      <c r="C235" t="s">
+        <v>891</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235">
+        <v>45</v>
+      </c>
+      <c r="F235" t="s">
+        <v>892</v>
+      </c>
+      <c r="G235" t="s">
+        <v>879</v>
+      </c>
+      <c r="H235" t="s">
+        <v>73</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" t="s">
+        <v>897</v>
+      </c>
+      <c r="K235" t="s">
+        <v>79</v>
+      </c>
+      <c r="L235" t="s">
+        <v>700</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>893</v>
+      </c>
+      <c r="B236" t="s">
+        <v>894</v>
+      </c>
+      <c r="C236" t="s">
+        <v>895</v>
+      </c>
+      <c r="D236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
+      </c>
+      <c r="F236" t="s">
+        <v>896</v>
+      </c>
+      <c r="G236" t="s">
+        <v>879</v>
+      </c>
+      <c r="H236" t="s">
+        <v>31</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+      <c r="J236" t="s">
+        <v>925</v>
+      </c>
+      <c r="K236" t="s">
+        <v>79</v>
+      </c>
+      <c r="L236" t="s">
+        <v>700</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>902</v>
+      </c>
+      <c r="B237" t="s">
+        <v>903</v>
+      </c>
+      <c r="C237" t="s">
+        <v>904</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237">
+        <v>45</v>
+      </c>
+      <c r="F237" t="s">
+        <v>905</v>
+      </c>
+      <c r="G237" t="s">
+        <v>941</v>
+      </c>
+      <c r="H237" t="s">
+        <v>73</v>
+      </c>
+      <c r="I237" t="s">
+        <v>40</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K237" t="s">
+        <v>79</v>
+      </c>
+      <c r="L237" t="s">
+        <v>700</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>907</v>
+      </c>
+      <c r="B238" t="s">
+        <v>908</v>
+      </c>
+      <c r="C238" t="s">
+        <v>909</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238">
+        <v>50</v>
+      </c>
+      <c r="F238" t="s">
+        <v>910</v>
+      </c>
+      <c r="G238" t="s">
+        <v>911</v>
+      </c>
+      <c r="H238" t="s">
+        <v>73</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" t="s">
+        <v>933</v>
+      </c>
+      <c r="K238" t="s">
+        <v>79</v>
+      </c>
+      <c r="L238" t="s">
+        <v>700</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>912</v>
+      </c>
+      <c r="B239" t="s">
+        <v>913</v>
+      </c>
+      <c r="C239" t="s">
+        <v>914</v>
+      </c>
+      <c r="D239" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239">
+        <v>45</v>
+      </c>
+      <c r="F239" t="s">
+        <v>915</v>
+      </c>
+      <c r="G239" t="s">
+        <v>906</v>
+      </c>
+      <c r="H239" t="s">
+        <v>31</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" t="s">
+        <v>921</v>
+      </c>
+      <c r="K239" t="s">
+        <v>79</v>
+      </c>
+      <c r="L239" t="s">
+        <v>700</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>916</v>
+      </c>
+      <c r="B240" t="s">
+        <v>917</v>
+      </c>
+      <c r="C240" t="s">
+        <v>918</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240">
+        <v>45</v>
+      </c>
+      <c r="F240" t="s">
+        <v>919</v>
+      </c>
+      <c r="G240" t="s">
+        <v>920</v>
+      </c>
+      <c r="H240" t="s">
+        <v>31</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" t="s">
+        <v>934</v>
+      </c>
+      <c r="K240" t="s">
+        <v>79</v>
+      </c>
+      <c r="L240" t="s">
+        <v>700</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>922</v>
+      </c>
+      <c r="B241" t="s">
+        <v>923</v>
+      </c>
+      <c r="C241" t="s">
+        <v>930</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241">
+        <v>50</v>
+      </c>
+      <c r="F241" t="s">
+        <v>924</v>
+      </c>
+      <c r="G241" t="s">
+        <v>911</v>
+      </c>
+      <c r="H241" t="s">
+        <v>73</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241" t="s">
+        <v>932</v>
+      </c>
+      <c r="K241" t="s">
+        <v>79</v>
+      </c>
+      <c r="L241" t="s">
+        <v>700</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>926</v>
+      </c>
+      <c r="B242" t="s">
+        <v>927</v>
+      </c>
+      <c r="C242" t="s">
+        <v>928</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242">
+        <v>50</v>
+      </c>
+      <c r="F242" t="s">
+        <v>929</v>
+      </c>
+      <c r="G242" t="s">
+        <v>911</v>
+      </c>
+      <c r="H242" t="s">
+        <v>73</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" t="s">
+        <v>931</v>
+      </c>
+      <c r="K242" t="s">
+        <v>79</v>
+      </c>
+      <c r="L242" t="s">
+        <v>700</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>935</v>
+      </c>
+      <c r="B243" t="s">
+        <v>936</v>
+      </c>
+      <c r="C243" t="s">
+        <v>937</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243">
+        <v>45</v>
+      </c>
+      <c r="F243" t="s">
+        <v>938</v>
+      </c>
+      <c r="G243" t="s">
+        <v>939</v>
+      </c>
+      <c r="H243" t="s">
+        <v>73</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243" t="s">
+        <v>940</v>
+      </c>
+      <c r="K243" t="s">
+        <v>79</v>
+      </c>
+      <c r="L243" t="s">
+        <v>700</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>942</v>
+      </c>
+      <c r="B244" t="s">
+        <v>950</v>
+      </c>
+      <c r="C244" t="s">
+        <v>943</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
+      </c>
+      <c r="F244" t="s">
+        <v>944</v>
+      </c>
+      <c r="G244" t="s">
+        <v>920</v>
+      </c>
+      <c r="H244" t="s">
+        <v>73</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244" t="s">
+        <v>951</v>
+      </c>
+      <c r="K244" t="s">
+        <v>79</v>
+      </c>
+      <c r="L244" t="s">
+        <v>700</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>945</v>
+      </c>
+      <c r="B245" t="s">
+        <v>946</v>
+      </c>
+      <c r="C245" t="s">
+        <v>947</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245">
+        <v>45</v>
+      </c>
+      <c r="F245" t="s">
+        <v>948</v>
+      </c>
+      <c r="G245" t="s">
+        <v>941</v>
+      </c>
+      <c r="H245" t="s">
+        <v>73</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245" t="s">
+        <v>949</v>
+      </c>
+      <c r="K245" t="s">
+        <v>79</v>
+      </c>
+      <c r="L245" t="s">
+        <v>700</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>952</v>
+      </c>
+      <c r="B246" t="s">
+        <v>953</v>
+      </c>
+      <c r="C246" t="s">
+        <v>954</v>
+      </c>
+      <c r="D246" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246">
+        <v>45</v>
+      </c>
+      <c r="F246" t="s">
+        <v>955</v>
+      </c>
+      <c r="G246" t="s">
+        <v>961</v>
+      </c>
+      <c r="H246" t="s">
+        <v>73</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>967</v>
+      </c>
+      <c r="K246" t="s">
+        <v>79</v>
+      </c>
+      <c r="L246" t="s">
+        <v>700</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>957</v>
+      </c>
+      <c r="B247" t="s">
+        <v>958</v>
+      </c>
+      <c r="C247" t="s">
+        <v>959</v>
+      </c>
+      <c r="D247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247">
+        <v>45</v>
+      </c>
+      <c r="F247" t="s">
+        <v>960</v>
+      </c>
+      <c r="G247" t="s">
+        <v>956</v>
+      </c>
+      <c r="H247" t="s">
+        <v>31</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" t="s">
+        <v>966</v>
+      </c>
+      <c r="K247" t="s">
+        <v>79</v>
+      </c>
+      <c r="L247" t="s">
+        <v>700</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>962</v>
+      </c>
+      <c r="B248" t="s">
+        <v>963</v>
+      </c>
+      <c r="C248" t="s">
+        <v>964</v>
+      </c>
+      <c r="D248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248">
+        <v>45</v>
+      </c>
+      <c r="F248" t="s">
+        <v>965</v>
+      </c>
+      <c r="G248" t="s">
+        <v>974</v>
+      </c>
+      <c r="H248" t="s">
+        <v>31</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" t="s">
+        <v>984</v>
+      </c>
+      <c r="K248" t="s">
+        <v>79</v>
+      </c>
+      <c r="L248" t="s">
+        <v>700</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>968</v>
+      </c>
+      <c r="B249" t="s">
+        <v>969</v>
+      </c>
+      <c r="C249" t="s">
+        <v>970</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
+      </c>
+      <c r="F249" t="s">
+        <v>971</v>
+      </c>
+      <c r="G249" t="s">
+        <v>972</v>
+      </c>
+      <c r="H249" t="s">
+        <v>31</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" t="s">
+        <v>973</v>
+      </c>
+      <c r="K249" t="s">
+        <v>79</v>
+      </c>
+      <c r="L249" t="s">
+        <v>700</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>975</v>
+      </c>
+      <c r="B250" t="s">
+        <v>976</v>
+      </c>
+      <c r="C250" t="s">
+        <v>977</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
+      </c>
+      <c r="F250" t="s">
+        <v>978</v>
+      </c>
+      <c r="G250" t="s">
+        <v>989</v>
+      </c>
+      <c r="H250" t="s">
+        <v>73</v>
+      </c>
+      <c r="I250" t="s">
+        <v>40</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K250" t="s">
+        <v>79</v>
+      </c>
+      <c r="L250" t="s">
+        <v>700</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>980</v>
+      </c>
+      <c r="B251" t="s">
+        <v>981</v>
+      </c>
+      <c r="C251" t="s">
+        <v>982</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251">
+        <v>45</v>
+      </c>
+      <c r="F251" t="s">
+        <v>983</v>
+      </c>
+      <c r="G251" t="s">
+        <v>979</v>
+      </c>
+      <c r="H251" t="s">
+        <v>73</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251" t="s">
+        <v>994</v>
+      </c>
+      <c r="K251" t="s">
+        <v>79</v>
+      </c>
+      <c r="L251" t="s">
+        <v>700</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>985</v>
+      </c>
+      <c r="B252" t="s">
+        <v>988</v>
+      </c>
+      <c r="C252" t="s">
+        <v>986</v>
+      </c>
+      <c r="D252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
+      </c>
+      <c r="F252" t="s">
+        <v>987</v>
+      </c>
+      <c r="G252" t="s">
+        <v>979</v>
+      </c>
+      <c r="H252" t="s">
+        <v>31</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" t="s">
+        <v>995</v>
+      </c>
+      <c r="K252" t="s">
+        <v>79</v>
+      </c>
+      <c r="L252" t="s">
+        <v>700</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>990</v>
+      </c>
+      <c r="B253" t="s">
+        <v>991</v>
+      </c>
+      <c r="C253" t="s">
+        <v>992</v>
+      </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
+      </c>
+      <c r="F253" t="s">
+        <v>993</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H253" t="s">
+        <v>73</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K253" t="s">
+        <v>79</v>
+      </c>
+      <c r="L253" t="s">
+        <v>700</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>996</v>
+      </c>
+      <c r="B254" t="s">
+        <v>997</v>
+      </c>
+      <c r="C254" t="s">
+        <v>998</v>
+      </c>
+      <c r="D254" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254">
+        <v>45</v>
+      </c>
+      <c r="F254" t="s">
+        <v>999</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H254" t="s">
+        <v>73</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K254" t="s">
+        <v>79</v>
+      </c>
+      <c r="L254" t="s">
+        <v>700</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255">
+        <v>45</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G255" t="s">
+        <v>989</v>
+      </c>
+      <c r="H255" t="s">
+        <v>31</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K255" t="s">
+        <v>79</v>
+      </c>
+      <c r="L255" t="s">
+        <v>700</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256">
+        <v>45</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H256" t="s">
+        <v>31</v>
+      </c>
+      <c r="I256" t="s">
+        <v>40</v>
+      </c>
+      <c r="J256" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K256" t="s">
+        <v>79</v>
+      </c>
+      <c r="L256" t="s">
+        <v>700</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D257" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257">
+        <v>45</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H257" t="s">
+        <v>73</v>
+      </c>
+      <c r="I257" t="s">
+        <v>13</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K257" t="s">
+        <v>79</v>
+      </c>
+      <c r="L257" t="s">
+        <v>700</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258">
+        <v>45</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H258" t="s">
+        <v>73</v>
+      </c>
+      <c r="I258" t="s">
+        <v>40</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K258" t="s">
+        <v>79</v>
+      </c>
+      <c r="L258" t="s">
+        <v>700</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H259" t="s">
+        <v>73</v>
+      </c>
+      <c r="I259" t="s">
+        <v>40</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K259" t="s">
+        <v>79</v>
+      </c>
+      <c r="L259" t="s">
+        <v>700</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260">
+        <v>50</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H260" t="s">
+        <v>31</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K260" t="s">
+        <v>79</v>
+      </c>
+      <c r="L260" t="s">
+        <v>700</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261">
+        <v>45</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H261" t="s">
+        <v>73</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K261" t="s">
+        <v>79</v>
+      </c>
+      <c r="L261" t="s">
+        <v>700</v>
+      </c>
+      <c r="M261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H262" t="s">
+        <v>31</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K262" t="s">
+        <v>79</v>
+      </c>
+      <c r="L262" t="s">
+        <v>700</v>
+      </c>
+      <c r="M262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263">
+        <v>45</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H263" t="s">
+        <v>31</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K263" t="s">
+        <v>79</v>
+      </c>
+      <c r="L263" t="s">
+        <v>700</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D264" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264">
+        <v>45</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H264" t="s">
+        <v>73</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K264" t="s">
+        <v>79</v>
+      </c>
+      <c r="L264" t="s">
+        <v>700</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D265" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265">
+        <v>45</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H265" t="s">
+        <v>73</v>
+      </c>
+      <c r="I265" t="s">
+        <v>40</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K265" t="s">
+        <v>21</v>
+      </c>
+      <c r="L265" t="s">
+        <v>700</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D266" t="s">
+        <v>20</v>
+      </c>
+      <c r="E266">
+        <v>45</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H266" t="s">
+        <v>73</v>
+      </c>
+      <c r="I266" t="s">
+        <v>13</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K266" t="s">
+        <v>79</v>
+      </c>
+      <c r="L266" t="s">
+        <v>700</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D267" t="s">
+        <v>20</v>
+      </c>
+      <c r="E267">
+        <v>45</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H267" t="s">
+        <v>31</v>
+      </c>
+      <c r="I267" t="s">
+        <v>13</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K267" t="s">
+        <v>79</v>
+      </c>
+      <c r="L267" t="s">
+        <v>700</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D268" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268">
+        <v>45</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H268" t="s">
+        <v>73</v>
+      </c>
+      <c r="I268" t="s">
+        <v>13</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K268" t="s">
+        <v>79</v>
+      </c>
+      <c r="L268" t="s">
+        <v>700</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269">
+        <v>45</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H269" t="s">
+        <v>31</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K269" t="s">
+        <v>79</v>
+      </c>
+      <c r="L269" t="s">
+        <v>700</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270">
+        <v>45</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H270" t="s">
+        <v>31</v>
+      </c>
+      <c r="I270" t="s">
+        <v>13</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K270" t="s">
+        <v>79</v>
+      </c>
+      <c r="L270" t="s">
+        <v>700</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271">
+        <v>45</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H271" t="s">
+        <v>31</v>
+      </c>
+      <c r="I271" t="s">
+        <v>13</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K271" t="s">
+        <v>79</v>
+      </c>
+      <c r="L271" t="s">
+        <v>700</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D272" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272">
+        <v>45</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H272" t="s">
+        <v>31</v>
+      </c>
+      <c r="I272" t="s">
+        <v>13</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K272" t="s">
+        <v>79</v>
+      </c>
+      <c r="L272" t="s">
+        <v>700</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H273" t="s">
+        <v>73</v>
+      </c>
+      <c r="I273" t="s">
+        <v>40</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K273" t="s">
+        <v>79</v>
+      </c>
+      <c r="L273" t="s">
+        <v>700</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H274" t="s">
+        <v>73</v>
+      </c>
+      <c r="I274" t="s">
+        <v>13</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K274" t="s">
+        <v>79</v>
+      </c>
+      <c r="L274" t="s">
+        <v>700</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H275" t="s">
+        <v>73</v>
+      </c>
+      <c r="I275" t="s">
+        <v>13</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K275" t="s">
+        <v>79</v>
+      </c>
+      <c r="L275" t="s">
+        <v>700</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D276" t="s">
+        <v>216</v>
+      </c>
+      <c r="E276" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H276" t="s">
+        <v>73</v>
+      </c>
+      <c r="I276" t="s">
+        <v>13</v>
+      </c>
+      <c r="J276" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K276" t="s">
+        <v>79</v>
+      </c>
+      <c r="L276" t="s">
+        <v>700</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D277" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H277" t="s">
+        <v>73</v>
+      </c>
+      <c r="I277" t="s">
+        <v>13</v>
+      </c>
+      <c r="J277" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K277" t="s">
+        <v>79</v>
+      </c>
+      <c r="L277" t="s">
+        <v>700</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D278" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H278" t="s">
+        <v>73</v>
+      </c>
+      <c r="I278" t="s">
+        <v>13</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K278" t="s">
+        <v>79</v>
+      </c>
+      <c r="L278" t="s">
+        <v>700</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H279" t="s">
+        <v>73</v>
+      </c>
+      <c r="I279" t="s">
+        <v>13</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K279" t="s">
+        <v>79</v>
+      </c>
+      <c r="L279" t="s">
+        <v>700</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D280" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H280" t="s">
+        <v>73</v>
+      </c>
+      <c r="I280" t="s">
+        <v>13</v>
+      </c>
+      <c r="J280" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K280" t="s">
+        <v>79</v>
+      </c>
+      <c r="L280" t="s">
+        <v>700</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H281" t="s">
+        <v>73</v>
+      </c>
+      <c r="I281" t="s">
+        <v>13</v>
+      </c>
+      <c r="J281" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K281" t="s">
+        <v>79</v>
+      </c>
+      <c r="L281" t="s">
+        <v>700</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D282" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H282" t="s">
+        <v>73</v>
+      </c>
+      <c r="I282" t="s">
+        <v>40</v>
+      </c>
+      <c r="J282" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K282" t="s">
+        <v>79</v>
+      </c>
+      <c r="L282" t="s">
+        <v>700</v>
+      </c>
+      <c r="M282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D283" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H283" t="s">
+        <v>31</v>
+      </c>
+      <c r="I283" t="s">
+        <v>40</v>
+      </c>
+      <c r="J283" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K283" t="s">
+        <v>79</v>
+      </c>
+      <c r="L283" t="s">
+        <v>700</v>
+      </c>
+      <c r="M283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H284" t="s">
+        <v>31</v>
+      </c>
+      <c r="I284" t="s">
+        <v>13</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K284" t="s">
+        <v>79</v>
+      </c>
+      <c r="L284" t="s">
+        <v>700</v>
+      </c>
+      <c r="M284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D285" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H285" t="s">
+        <v>31</v>
+      </c>
+      <c r="I285" t="s">
+        <v>40</v>
+      </c>
+      <c r="J285" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K285" t="s">
+        <v>79</v>
+      </c>
+      <c r="L285" t="s">
+        <v>700</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H286" t="s">
+        <v>73</v>
+      </c>
+      <c r="I286" t="s">
+        <v>13</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K286" t="s">
+        <v>79</v>
+      </c>
+      <c r="L286" t="s">
+        <v>700</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H287" t="s">
+        <v>31</v>
+      </c>
+      <c r="I287" t="s">
+        <v>13</v>
+      </c>
+      <c r="J287" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K287" t="s">
+        <v>79</v>
+      </c>
+      <c r="L287" t="s">
+        <v>700</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D288" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H288" t="s">
+        <v>31</v>
+      </c>
+      <c r="I288" t="s">
+        <v>13</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K288" t="s">
+        <v>79</v>
+      </c>
+      <c r="L288" t="s">
+        <v>700</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D289" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H289" t="s">
+        <v>31</v>
+      </c>
+      <c r="I289" t="s">
+        <v>40</v>
+      </c>
+      <c r="J289" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K289" t="s">
+        <v>79</v>
+      </c>
+      <c r="L289" t="s">
+        <v>700</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H290" t="s">
+        <v>31</v>
+      </c>
+      <c r="I290" t="s">
+        <v>13</v>
+      </c>
+      <c r="J290" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K290" t="s">
+        <v>79</v>
+      </c>
+      <c r="L290" t="s">
+        <v>700</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H291" t="s">
+        <v>31</v>
+      </c>
+      <c r="I291" t="s">
+        <v>13</v>
+      </c>
+      <c r="J291" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K291" t="s">
+        <v>79</v>
+      </c>
+      <c r="L291" t="s">
+        <v>700</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H292" t="s">
+        <v>73</v>
+      </c>
+      <c r="I292" t="s">
+        <v>13</v>
+      </c>
+      <c r="J292" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K292" t="s">
+        <v>79</v>
+      </c>
+      <c r="L292" t="s">
+        <v>700</v>
+      </c>
+      <c r="M292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D293" t="s">
+        <v>216</v>
+      </c>
+      <c r="E293" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H293" t="s">
+        <v>73</v>
+      </c>
+      <c r="I293" t="s">
+        <v>13</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K293" t="s">
+        <v>79</v>
+      </c>
+      <c r="L293" t="s">
+        <v>700</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H294" t="s">
+        <v>31</v>
+      </c>
+      <c r="I294" t="s">
+        <v>659</v>
+      </c>
+      <c r="J294" t="s">
+        <v>857</v>
+      </c>
+      <c r="K294" t="s">
+        <v>79</v>
+      </c>
+      <c r="L294" t="s">
+        <v>700</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H295" t="s">
+        <v>73</v>
+      </c>
+      <c r="I295" t="s">
+        <v>13</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K295" t="s">
+        <v>79</v>
+      </c>
+      <c r="L295" t="s">
+        <v>700</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H296" t="s">
+        <v>73</v>
+      </c>
+      <c r="I296" t="s">
+        <v>13</v>
+      </c>
+      <c r="J296" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K296" t="s">
+        <v>79</v>
+      </c>
+      <c r="L296" t="s">
+        <v>700</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H297" t="s">
+        <v>31</v>
+      </c>
+      <c r="I297" t="s">
+        <v>13</v>
+      </c>
+      <c r="J297" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K297" t="s">
+        <v>79</v>
+      </c>
+      <c r="L297" t="s">
+        <v>700</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H298" t="s">
+        <v>73</v>
+      </c>
+      <c r="I298" t="s">
+        <v>659</v>
+      </c>
+      <c r="J298" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K298" t="s">
+        <v>79</v>
+      </c>
+      <c r="L298" t="s">
+        <v>700</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D299" t="s">
+        <v>773</v>
+      </c>
+      <c r="E299" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H299" t="s">
+        <v>31</v>
+      </c>
+      <c r="I299" t="s">
+        <v>13</v>
+      </c>
+      <c r="J299" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K299" t="s">
+        <v>79</v>
+      </c>
+      <c r="L299" t="s">
+        <v>700</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H300" t="s">
+        <v>73</v>
+      </c>
+      <c r="I300" t="s">
+        <v>40</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K300" t="s">
+        <v>79</v>
+      </c>
+      <c r="L300" t="s">
+        <v>700</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D301" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H301" t="s">
+        <v>31</v>
+      </c>
+      <c r="I301" t="s">
+        <v>13</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K301" t="s">
+        <v>79</v>
+      </c>
+      <c r="L301" t="s">
+        <v>700</v>
+      </c>
+      <c r="M301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H302" t="s">
+        <v>31</v>
+      </c>
+      <c r="I302" t="s">
+        <v>13</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K302" t="s">
+        <v>79</v>
+      </c>
+      <c r="L302" t="s">
+        <v>700</v>
+      </c>
+      <c r="M302" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D303" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H303" t="s">
+        <v>31</v>
+      </c>
+      <c r="I303" t="s">
+        <v>659</v>
+      </c>
+      <c r="J303" t="s">
+        <v>857</v>
+      </c>
+      <c r="K303" t="s">
+        <v>79</v>
+      </c>
+      <c r="L303" t="s">
+        <v>700</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D304" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H304" t="s">
+        <v>31</v>
+      </c>
+      <c r="I304" t="s">
+        <v>659</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K304" t="s">
+        <v>79</v>
+      </c>
+      <c r="L304" t="s">
+        <v>700</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D305" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H305" t="s">
+        <v>31</v>
+      </c>
+      <c r="I305" t="s">
+        <v>659</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K305" t="s">
+        <v>79</v>
+      </c>
+      <c r="L305" t="s">
+        <v>700</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D306" t="s">
+        <v>20</v>
+      </c>
+      <c r="E306" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H306" t="s">
+        <v>31</v>
+      </c>
+      <c r="I306" t="s">
+        <v>659</v>
+      </c>
+      <c r="J306" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K306" t="s">
+        <v>79</v>
+      </c>
+      <c r="L306" t="s">
+        <v>700</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D307" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H307" t="s">
+        <v>31</v>
+      </c>
+      <c r="I307" t="s">
+        <v>659</v>
+      </c>
+      <c r="J307" t="s">
+        <v>857</v>
+      </c>
+      <c r="K307" t="s">
+        <v>79</v>
+      </c>
+      <c r="L307" t="s">
+        <v>700</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D308" t="s">
+        <v>20</v>
+      </c>
+      <c r="E308" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H308" t="s">
+        <v>73</v>
+      </c>
+      <c r="I308" t="s">
+        <v>659</v>
+      </c>
+      <c r="J308" t="s">
+        <v>857</v>
+      </c>
+      <c r="K308" t="s">
+        <v>79</v>
+      </c>
+      <c r="L308" t="s">
+        <v>700</v>
+      </c>
+      <c r="M308" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/VendasFibra2024.xlsx
+++ b/VendasFibra2024.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22480" uniqueCount="2877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22714" uniqueCount="2936">
   <si>
     <t>CPF</t>
   </si>
@@ -9729,6 +9729,232 @@
     <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
      Atualizado em 06/03/2025 13:58
 Remarcado de 06/03/2025 de Tarde Para 07/03/2025 de Tarde
+</t>
+  </si>
+  <si>
+    <t>00826848125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzirene Cândida da Silva </t>
+  </si>
+  <si>
+    <t>63992699286</t>
+  </si>
+  <si>
+    <t>06/03/2025 16:39</t>
+  </si>
+  <si>
+    <t>03993926617</t>
+  </si>
+  <si>
+    <t>ADRIANA FERREIRA DE JESUS ALVES</t>
+  </si>
+  <si>
+    <t>31971009748</t>
+  </si>
+  <si>
+    <t>06/03/2025 18:48</t>
+  </si>
+  <si>
+    <t>VERO
+Contrato: 2344249   Venda #689064
+Cód. endereço: 1487355
+Inventário: 58377018</t>
+  </si>
+  <si>
+    <t>03167641673</t>
+  </si>
+  <si>
+    <t>WESLLEY COSTA VILACA</t>
+  </si>
+  <si>
+    <t>31982954636</t>
+  </si>
+  <si>
+    <t>06/03/2025 19:14</t>
+  </si>
+  <si>
+    <t>VERO - plano de 780MB
+Contrato: 2344262    Venda #689273
+Cód. endereço: 27818531
+Inventário: 32026730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 07/03/2025 11:47
+Sua Venda mudou de Aprovisionamento Para Instalada
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 07/03/2025 11:49
+Sua Venda mudou de Aprovisionamento Para Instalada
+</t>
+  </si>
+  <si>
+    <t>05284784278</t>
+  </si>
+  <si>
+    <t>ALICE MORAES GUIMARAES</t>
+  </si>
+  <si>
+    <t>92993150726</t>
+  </si>
+  <si>
+    <t>10/03/2025 17:40</t>
+  </si>
+  <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 06/03/2025 13:58
+Remarcado de 06/03/2025 de Tarde Para 07/03/2025 de Tarde
+--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 10/03/2025 17:41
+Sua Venda mudou de Aprovisionamento Para Instalada
+</t>
+  </si>
+  <si>
+    <t>08197351759</t>
+  </si>
+  <si>
+    <t>Helena Rúbia Sena</t>
+  </si>
+  <si>
+    <t>21965019039</t>
+  </si>
+  <si>
+    <t>13/03/2025 17:12</t>
+  </si>
+  <si>
+    <t>15/03/2025</t>
+  </si>
+  <si>
+    <t>72824247215</t>
+  </si>
+  <si>
+    <t>SILVIA GERONIMO GUEDES</t>
+  </si>
+  <si>
+    <t>92981658506</t>
+  </si>
+  <si>
+    <t>13/03/2025 18:13</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02052239316  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro da Silva  </t>
+  </si>
+  <si>
+    <t>61993980524</t>
+  </si>
+  <si>
+    <t>14/03/2025 12:03</t>
+  </si>
+  <si>
+    <t>FALTA FINALIZAR - ERRO AO GERAR VENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 14/03/2025 12:57
+Remarcado de 15/03/2025 de Manhã Para 17/03/2025 de Manhã
+</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 14/03/2025 12:59
+Remarcado de 13/03/2025 de Manhã Para 14/03/2025 de Manhã
+</t>
+  </si>
+  <si>
+    <t>03626363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Da Silva Chaves Martins  </t>
+  </si>
+  <si>
+    <t>24999324822</t>
+  </si>
+  <si>
+    <t>14/03/2025 14:39</t>
+  </si>
+  <si>
+    <t>60899409687</t>
+  </si>
+  <si>
+    <t>CLAUDIA MAGDA DA SILVA</t>
+  </si>
+  <si>
+    <t>31988569121</t>
+  </si>
+  <si>
+    <t>14/03/2025 15:46</t>
+  </si>
+  <si>
+    <t>Dados da integração:
+Contrato: 2360935
+Cód. endereço: 24786877
+Inventário: 17793439
+Cód. agendamento: 10d6b121-53f7-4535-be51-96aa21f38646
+Cód. documento: 20250314154003873
+Produto: BL_780MB
+Agendamento: 17/03/2025 08:00:00 à 17/03/2025 12:00:00</t>
+  </si>
+  <si>
+    <t>35943378120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genoveva Angela pinto  </t>
+  </si>
+  <si>
+    <t>61993169189</t>
+  </si>
+  <si>
+    <t>14/03/2025 17:31</t>
+  </si>
+  <si>
+    <t>sem agendamento</t>
+  </si>
+  <si>
+    <t>16/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem agendamento--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 14/03/2025 17:48
+Remarcado de 15/03/2025 de Manhã Para 16/03/2025 de Manhã
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 17/03/2025 11:25
+Sua Venda mudou de Aprovisionamento Para Instalada
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 14/03/2025 12:57
+Remarcado de 15/03/2025 de Manhã Para 17/03/2025 de Manhã
+--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 17/03/2025 11:27
+Sua Venda mudou de Aprovisionamento Para Instalada
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 14/03/2025 12:59
+Remarcado de 13/03/2025 de Manhã Para 14/03/2025 de Manhã
+--%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;----%$&amp;--
+     Atualizado em 17/03/2025 11:27
+Sua Venda mudou de Aprovisionamento Para Instalada
 </t>
   </si>
 </sst>
@@ -35824,10 +36050,10 @@
         <v>38</v>
       </c>
       <c r="I583" t="s">
-        <v>2772</v>
+        <v>39</v>
       </c>
       <c r="J583" t="s">
-        <v>2876</v>
+        <v>2898</v>
       </c>
       <c r="K583" t="s">
         <v>813</v>
@@ -35868,10 +36094,10 @@
         <v>21</v>
       </c>
       <c r="I584" t="s">
-        <v>2772</v>
+        <v>39</v>
       </c>
       <c r="J584" t="s">
-        <v>56</v>
+        <v>2892</v>
       </c>
       <c r="K584" t="s">
         <v>813</v>
@@ -35883,6 +36109,446 @@
         <v>3.0</v>
       </c>
       <c r="N584" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D585" t="s">
+        <v>17</v>
+      </c>
+      <c r="E585" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F585" t="s">
+        <v>2880</v>
+      </c>
+      <c r="G585" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H585" t="s">
+        <v>21</v>
+      </c>
+      <c r="I585" t="s">
+        <v>39</v>
+      </c>
+      <c r="J585" t="s">
+        <v>2891</v>
+      </c>
+      <c r="K585" t="s">
+        <v>813</v>
+      </c>
+      <c r="L585" t="s">
+        <v>25</v>
+      </c>
+      <c r="M585" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N585" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B586" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D586" t="s">
+        <v>128</v>
+      </c>
+      <c r="E586" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F586" t="s">
+        <v>2884</v>
+      </c>
+      <c r="G586" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H586" t="s">
+        <v>21</v>
+      </c>
+      <c r="I586" t="s">
+        <v>39</v>
+      </c>
+      <c r="J586" t="s">
+        <v>2885</v>
+      </c>
+      <c r="K586" t="s">
+        <v>813</v>
+      </c>
+      <c r="L586" t="s">
+        <v>25</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N586" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B587" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D587" t="s">
+        <v>17</v>
+      </c>
+      <c r="E587" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F587" t="s">
+        <v>2889</v>
+      </c>
+      <c r="G587" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H587" t="s">
+        <v>21</v>
+      </c>
+      <c r="I587" t="s">
+        <v>39</v>
+      </c>
+      <c r="J587" t="s">
+        <v>2885</v>
+      </c>
+      <c r="K587" t="s">
+        <v>813</v>
+      </c>
+      <c r="L587" t="s">
+        <v>25</v>
+      </c>
+      <c r="M587" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N587" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B588" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D588" t="s">
+        <v>17</v>
+      </c>
+      <c r="E588" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F588" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G588" t="s">
+        <v>2915</v>
+      </c>
+      <c r="H588" t="s">
+        <v>21</v>
+      </c>
+      <c r="I588" t="s">
+        <v>39</v>
+      </c>
+      <c r="J588" t="s">
+        <v>2935</v>
+      </c>
+      <c r="K588" t="s">
+        <v>813</v>
+      </c>
+      <c r="L588" t="s">
+        <v>25</v>
+      </c>
+      <c r="M588" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N588" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B589" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D589" t="s">
+        <v>17</v>
+      </c>
+      <c r="E589" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2902</v>
+      </c>
+      <c r="G589" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H589" t="s">
+        <v>38</v>
+      </c>
+      <c r="I589" t="s">
+        <v>39</v>
+      </c>
+      <c r="J589" t="s">
+        <v>2933</v>
+      </c>
+      <c r="K589" t="s">
+        <v>813</v>
+      </c>
+      <c r="L589" t="s">
+        <v>25</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N589" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D590" t="s">
+        <v>30</v>
+      </c>
+      <c r="E590" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F590" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G590" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H590" t="s">
+        <v>21</v>
+      </c>
+      <c r="I590" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J590" t="s">
+        <v>56</v>
+      </c>
+      <c r="K590" t="s">
+        <v>813</v>
+      </c>
+      <c r="L590" t="s">
+        <v>25</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N590" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B591" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D591" t="s">
+        <v>17</v>
+      </c>
+      <c r="E591" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G591" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H591" t="s">
+        <v>21</v>
+      </c>
+      <c r="I591" t="s">
+        <v>39</v>
+      </c>
+      <c r="J591" t="s">
+        <v>2934</v>
+      </c>
+      <c r="K591" t="s">
+        <v>813</v>
+      </c>
+      <c r="L591" t="s">
+        <v>25</v>
+      </c>
+      <c r="M591" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N591" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D592" t="s">
+        <v>17</v>
+      </c>
+      <c r="E592" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F592" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G592" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H592" t="s">
+        <v>38</v>
+      </c>
+      <c r="I592" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J592" t="s">
+        <v>56</v>
+      </c>
+      <c r="K592" t="s">
+        <v>813</v>
+      </c>
+      <c r="L592" t="s">
+        <v>25</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N592" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B593" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D593" t="s">
+        <v>17</v>
+      </c>
+      <c r="E593" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F593" t="s">
+        <v>2924</v>
+      </c>
+      <c r="G593" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H593" t="s">
+        <v>21</v>
+      </c>
+      <c r="I593" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J593" t="s">
+        <v>2925</v>
+      </c>
+      <c r="K593" t="s">
+        <v>24</v>
+      </c>
+      <c r="L593" t="s">
+        <v>25</v>
+      </c>
+      <c r="M593" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N593" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D594" t="s">
+        <v>30</v>
+      </c>
+      <c r="E594" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F594" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G594" t="s">
+        <v>2931</v>
+      </c>
+      <c r="H594" t="s">
+        <v>21</v>
+      </c>
+      <c r="I594" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J594" t="s">
+        <v>2932</v>
+      </c>
+      <c r="K594" t="s">
+        <v>813</v>
+      </c>
+      <c r="L594" t="s">
+        <v>25</v>
+      </c>
+      <c r="M594" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N594" t="s">
         <v>26</v>
       </c>
     </row>
